--- a/biology/Zoologie/Heroina/Heroina.xlsx
+++ b/biology/Zoologie/Heroina/Heroina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heroina isonycterina est une espèce de poissons téléostéens de la famille des Cichlidae. C'est la seule espèce contenue dans le genre Heroina (monotypique).
 C'est un poisson tropical d'eau douce, d'environ 10 cm de long à l'âge adulte, qui vit dans certaines grandes rivières d'Amérique du Sud.
